--- a/src/test/Data/purchaseInfoData.xlsx
+++ b/src/test/Data/purchaseInfoData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\Projects 2\Office Work\ExcelFileDemo\src\test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ADB635-D7A1-47D8-8BB7-77FE4D9D1220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D523722-9C28-4A75-A862-F2242BB6A8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="3870" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SafetyData" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Quantity</t>
   </si>
@@ -49,22 +49,28 @@
     <t>supplier_info</t>
   </si>
   <si>
-    <t>Tiger</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
     <t>Good meat</t>
   </si>
   <si>
-    <t>Monkey</t>
-  </si>
-  <si>
-    <t>Fruit</t>
-  </si>
-  <si>
     <t>Fresh fruit</t>
+  </si>
+  <si>
+    <t>A.J. SURGICAL (Dhaka - 01611111111)</t>
+  </si>
+  <si>
+    <t>AC Grill LG(TAPF-GLG-011)</t>
+  </si>
+  <si>
+    <t>3M Surgical (Dhaka - 01800000000)</t>
+  </si>
+  <si>
+    <t>Falcon Round Knob(TAPF-FACN-0031)</t>
+  </si>
+  <si>
+    <t>AC Comb Fin(TAPF-FCO-0048)</t>
+  </si>
+  <si>
+    <t>Chiruni bro</t>
   </si>
 </sst>
 </file>
@@ -490,17 +496,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
@@ -530,10 +536,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -542,18 +548,18 @@
         <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>500</v>
+        <v>8.35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -562,10 +568,30 @@
         <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>100</v>
+        <v>540</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>55</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
